--- a/biology/Médecine/Constant_Despine/Constant_Despine.xlsx
+++ b/biology/Médecine/Constant_Despine/Constant_Despine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Constant Despine, né le 19 mars 1807 à Annecy et mort le 14 mars 1873 à Brison-Saint-Innocent, est un médecin du XIXe siècle d'origine savoyarde, issu de la famille Despine (d'Espine).
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origines
-Constant-Claude-Joseph Despine naît le 19 mars 1807, à Annecy[1], dans le département du Léman, en France. Le duché de Savoie a été uni à la France en 1792. Il est le fils aîné du docteur Antoine Despine (1777-1852) et de Suzanne-Péronne Révillod (1784–1862)[2],[3]. Il a trois sœurs et quatre frères, dont Alphonse (1818—1872)[2], avocat et professeur de droit à Annecy[4] et Félix Despine (1819—1883)[2], haut fonctionnaire[5].
-Il devient, à la mort de son père, le chef de famille et il hérite du titre de baron[2],[3].
-Il épouse, le 9 juin 1840, Anne Soupat[1].
-Carrière médicale
-Constant Despine entreprend des études de médecine tout comme ses prédécesseurs, se perfectionnant à Paris et à Londres[6]. Il exerce la médecine à Turin, en 1830, puis à Nice de 1838 à 1844[6].
-Il succède à son père à la tête des Thermes royaux de la ville d'Aix, en 1849[1]. Il porte le titre de médecin-inspecteur[1]. Il reste en fonction jusqu'en 1853[6].
-Il semble avoir été sceptique quant aux pratiques médicales de son père[6].
-Autres intérêts
-En 1859, il est nommé syndic de la cité thermale[1].
-Installé à Brison-Saint-Innocent, il devient maire de la commune[1], au lendemain de l'Annexion de la Savoie à la France, en 1860. Il reste en fonction jusqu'en 1870[1].
-Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 14 août 1835[7]. Il est également membre de l'Académie florimontane.
-Constant Despine meurt le 14 mars 1873, à Brison-Saint-Innocent[1].
+          <t>Origines</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant-Claude-Joseph Despine naît le 19 mars 1807, à Annecy, dans le département du Léman, en France. Le duché de Savoie a été uni à la France en 1792. Il est le fils aîné du docteur Antoine Despine (1777-1852) et de Suzanne-Péronne Révillod (1784–1862),. Il a trois sœurs et quatre frères, dont Alphonse (1818—1872), avocat et professeur de droit à Annecy et Félix Despine (1819—1883), haut fonctionnaire.
+Il devient, à la mort de son père, le chef de famille et il hérite du titre de baron,.
+Il épouse, le 9 juin 1840, Anne Soupat.
 </t>
         </is>
       </c>
@@ -551,16 +559,21 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Famille</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Constant Despine épouse Anne Soupat, quatre enfants[1],[3] :
-Alfred (1841) ;
-Hélène (1843-1876), ∞ Arthur Chauveau des Roches ;
-Alphonse François (16 juin 1844 à Aix-les-Bains — 22 août 1917 à Brison-Saint-Innocent), baron, secrétaire particulier et chef de cabinet du préfet de la Savoie (1869-1877), puis sous-préfet de Bonneville (juin-décembre 1877), maire de Brison-Saint-Innocent[3],[8] (1887-1892) ;
-Adèle (1847-1934), ∞ Jean Béchillon.</t>
+          <t>Carrière médicale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Constant Despine entreprend des études de médecine tout comme ses prédécesseurs, se perfectionnant à Paris et à Londres. Il exerce la médecine à Turin, en 1830, puis à Nice de 1838 à 1844.
+Il succède à son père à la tête des Thermes royaux de la ville d'Aix, en 1849. Il porte le titre de médecin-inspecteur. Il reste en fonction jusqu'en 1853.
+Il semble avoir été sceptique quant aux pratiques médicales de son père.
+</t>
         </is>
       </c>
     </row>
@@ -585,14 +598,22 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Constant Despine a reçu les distinctions suivantes :
- Chevalier de l'ordre des Saints-Maurice-et-Lazare (1853)[1],[3] ;
- Chevalier de la Légion d'honneur (15 mai 1861)[9],[3].</t>
+          <t>Autres intérêts</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1859, il est nommé syndic de la cité thermale.
+Installé à Brison-Saint-Innocent, il devient maire de la commune, au lendemain de l'Annexion de la Savoie à la France, en 1860. Il reste en fonction jusqu'en 1870.
+Il est élu membre Correspondant de l'Académie des sciences, belles-lettres et arts de Savoie, le 14 août 1835. Il est également membre de l'Académie florimontane.
+Constant Despine meurt le 14 mars 1873, à Brison-Saint-Innocent.
+</t>
         </is>
       </c>
     </row>
@@ -617,10 +638,82 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Constant Despine épouse Anne Soupat, quatre enfants, :
+Alfred (1841) ;
+Hélène (1843-1876), ∞ Arthur Chauveau des Roches ;
+Alphonse François (16 juin 1844 à Aix-les-Bains — 22 août 1917 à Brison-Saint-Innocent), baron, secrétaire particulier et chef de cabinet du préfet de la Savoie (1869-1877), puis sous-préfet de Bonneville (juin-décembre 1877), maire de Brison-Saint-Innocent, (1887-1892) ;
+Adèle (1847-1934), ∞ Jean Béchillon.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Constant_Despine</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constant_Despine</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Constant Despine a reçu les distinctions suivantes :
+ Chevalier de l'ordre des Saints-Maurice-et-Lazare (1853), ;
+ Chevalier de la Légion d'honneur (15 mai 1861),.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Constant_Despine</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Constant_Despine</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Plusieurs carnets de voyage ;
 Publication d'articles dans :
